--- a/Session_7_Multivariate_Data/auto_dataset.xlsx
+++ b/Session_7_Multivariate_Data/auto_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanvazquez/Documents/GitHub/TEC-IN2039/Session_7_Multivariate_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D371029-3F8F-2249-A7E3-2EF7E5B0DC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C678C6-8324-3643-B47E-341203A6D9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{B26D55B1-590C-FA4C-964A-1DD3B3123C93}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>acceleration</t>
   </si>
   <si>
-    <t>model year</t>
-  </si>
-  <si>
     <t>origin</t>
   </si>
   <si>
@@ -993,6 +990,9 @@
   </si>
   <si>
     <t>Japanese</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1453,10 +1453,10 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1482,10 +1482,10 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1511,10 +1511,10 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1540,10 +1540,10 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1569,10 +1569,10 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1598,10 +1598,10 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1656,10 +1656,10 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1685,10 +1685,10 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1714,10 +1714,10 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,10 +1772,10 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1801,10 +1801,10 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1830,10 +1830,10 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1859,10 +1859,10 @@
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1888,10 +1888,10 @@
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1917,10 +1917,10 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1946,10 +1946,10 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1975,10 +1975,10 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2004,10 +2004,10 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2033,10 +2033,10 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2062,10 +2062,10 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2091,10 +2091,10 @@
         <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2120,10 +2120,10 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2149,10 +2149,10 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2178,10 +2178,10 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2207,10 +2207,10 @@
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2236,10 +2236,10 @@
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2265,10 +2265,10 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2294,10 +2294,10 @@
         <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2323,10 +2323,10 @@
         <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2340,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>2046</v>
@@ -2352,10 +2352,10 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2381,10 +2381,10 @@
         <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2410,10 +2410,10 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2439,10 +2439,10 @@
         <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2468,10 +2468,10 @@
         <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2526,10 +2526,10 @@
         <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2555,10 +2555,10 @@
         <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2584,10 +2584,10 @@
         <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2613,10 +2613,10 @@
         <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2642,10 +2642,10 @@
         <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2671,10 +2671,10 @@
         <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2700,10 +2700,10 @@
         <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2729,10 +2729,10 @@
         <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,10 +2758,10 @@
         <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2787,10 +2787,10 @@
         <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2816,10 +2816,10 @@
         <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2903,10 +2903,10 @@
         <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2932,10 +2932,10 @@
         <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2961,10 +2961,10 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2990,10 +2990,10 @@
         <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,10 +3019,10 @@
         <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3048,10 +3048,10 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3077,10 +3077,10 @@
         <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3106,10 +3106,10 @@
         <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3135,10 +3135,10 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3164,10 +3164,10 @@
         <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3193,10 +3193,10 @@
         <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3222,10 +3222,10 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3251,10 +3251,10 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3280,10 +3280,10 @@
         <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3309,10 +3309,10 @@
         <v>72</v>
       </c>
       <c r="H67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3338,10 +3338,10 @@
         <v>72</v>
       </c>
       <c r="H68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3367,10 +3367,10 @@
         <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3396,10 +3396,10 @@
         <v>72</v>
       </c>
       <c r="H70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3425,10 +3425,10 @@
         <v>72</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3454,10 +3454,10 @@
         <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3483,10 +3483,10 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3512,10 +3512,10 @@
         <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3541,10 +3541,10 @@
         <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3570,10 +3570,10 @@
         <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3599,10 +3599,10 @@
         <v>72</v>
       </c>
       <c r="H77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3628,10 +3628,10 @@
         <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3657,10 +3657,10 @@
         <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3686,10 +3686,10 @@
         <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3715,10 +3715,10 @@
         <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3744,10 +3744,10 @@
         <v>72</v>
       </c>
       <c r="H82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3773,10 +3773,10 @@
         <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3802,10 +3802,10 @@
         <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
         <v>72</v>
       </c>
       <c r="H85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3860,10 +3860,10 @@
         <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3889,10 +3889,10 @@
         <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3918,10 +3918,10 @@
         <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3947,10 +3947,10 @@
         <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3976,10 +3976,10 @@
         <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4005,10 +4005,10 @@
         <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4034,10 +4034,10 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4063,10 +4063,10 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4092,10 +4092,10 @@
         <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4121,10 +4121,10 @@
         <v>73</v>
       </c>
       <c r="H95" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4150,10 +4150,10 @@
         <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4179,10 +4179,10 @@
         <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4208,10 +4208,10 @@
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4237,10 +4237,10 @@
         <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4266,10 +4266,10 @@
         <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4295,10 +4295,10 @@
         <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4324,10 +4324,10 @@
         <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4353,10 +4353,10 @@
         <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4382,10 +4382,10 @@
         <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4411,10 +4411,10 @@
         <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4440,10 +4440,10 @@
         <v>73</v>
       </c>
       <c r="H106" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4469,10 +4469,10 @@
         <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4498,10 +4498,10 @@
         <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4527,10 +4527,10 @@
         <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4556,10 +4556,10 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4585,10 +4585,10 @@
         <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4614,10 +4614,10 @@
         <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -4643,10 +4643,10 @@
         <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4672,10 +4672,10 @@
         <v>73</v>
       </c>
       <c r="H114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4701,10 +4701,10 @@
         <v>73</v>
       </c>
       <c r="H115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4730,10 +4730,10 @@
         <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4759,10 +4759,10 @@
         <v>73</v>
       </c>
       <c r="H117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4788,10 +4788,10 @@
         <v>73</v>
       </c>
       <c r="H118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4817,10 +4817,10 @@
         <v>73</v>
       </c>
       <c r="H119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4846,10 +4846,10 @@
         <v>73</v>
       </c>
       <c r="H120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4875,10 +4875,10 @@
         <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4904,10 +4904,10 @@
         <v>73</v>
       </c>
       <c r="H122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4933,10 +4933,10 @@
         <v>73</v>
       </c>
       <c r="H123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4962,10 +4962,10 @@
         <v>73</v>
       </c>
       <c r="H124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4991,10 +4991,10 @@
         <v>73</v>
       </c>
       <c r="H125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -5020,10 +5020,10 @@
         <v>73</v>
       </c>
       <c r="H126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -5049,10 +5049,10 @@
         <v>74</v>
       </c>
       <c r="H127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -5066,7 +5066,7 @@
         <v>200</v>
       </c>
       <c r="D128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E128">
         <v>2875</v>
@@ -5078,10 +5078,10 @@
         <v>74</v>
       </c>
       <c r="H128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5107,10 +5107,10 @@
         <v>74</v>
       </c>
       <c r="H129" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5136,10 +5136,10 @@
         <v>74</v>
       </c>
       <c r="H130" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5165,10 +5165,10 @@
         <v>74</v>
       </c>
       <c r="H131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5194,10 +5194,10 @@
         <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5223,10 +5223,10 @@
         <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5252,10 +5252,10 @@
         <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5281,10 +5281,10 @@
         <v>74</v>
       </c>
       <c r="H135" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I135" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5310,10 +5310,10 @@
         <v>74</v>
       </c>
       <c r="H136" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5339,10 +5339,10 @@
         <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5368,10 +5368,10 @@
         <v>74</v>
       </c>
       <c r="H138" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5397,10 +5397,10 @@
         <v>74</v>
       </c>
       <c r="H139" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5426,10 +5426,10 @@
         <v>74</v>
       </c>
       <c r="H140" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5455,10 +5455,10 @@
         <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I141" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5484,10 +5484,10 @@
         <v>74</v>
       </c>
       <c r="H142" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I142" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5513,10 +5513,10 @@
         <v>74</v>
       </c>
       <c r="H143" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5542,10 +5542,10 @@
         <v>74</v>
       </c>
       <c r="H144" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -5571,10 +5571,10 @@
         <v>74</v>
       </c>
       <c r="H145" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5600,10 +5600,10 @@
         <v>74</v>
       </c>
       <c r="H146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -5629,10 +5629,10 @@
         <v>74</v>
       </c>
       <c r="H147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -5658,10 +5658,10 @@
         <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5687,10 +5687,10 @@
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I149" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -5716,10 +5716,10 @@
         <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,10 +5745,10 @@
         <v>74</v>
       </c>
       <c r="H151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I151" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -5774,10 +5774,10 @@
         <v>74</v>
       </c>
       <c r="H152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -5803,10 +5803,10 @@
         <v>74</v>
       </c>
       <c r="H153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -5832,10 +5832,10 @@
         <v>75</v>
       </c>
       <c r="H154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5861,10 +5861,10 @@
         <v>75</v>
       </c>
       <c r="H155" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I155" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -5890,10 +5890,10 @@
         <v>75</v>
       </c>
       <c r="H156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,10 +5919,10 @@
         <v>75</v>
       </c>
       <c r="H157" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -5948,10 +5948,10 @@
         <v>75</v>
       </c>
       <c r="H158" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -5977,10 +5977,10 @@
         <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,10 +6006,10 @@
         <v>75</v>
       </c>
       <c r="H160" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -6035,10 +6035,10 @@
         <v>75</v>
       </c>
       <c r="H161" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I161" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -6064,10 +6064,10 @@
         <v>75</v>
       </c>
       <c r="H162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,10 +6093,10 @@
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -6122,10 +6122,10 @@
         <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6151,10 +6151,10 @@
         <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6180,10 +6180,10 @@
         <v>75</v>
       </c>
       <c r="H166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6209,10 +6209,10 @@
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -6238,10 +6238,10 @@
         <v>75</v>
       </c>
       <c r="H168" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -6267,10 +6267,10 @@
         <v>75</v>
       </c>
       <c r="H169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6296,10 +6296,10 @@
         <v>75</v>
       </c>
       <c r="H170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6325,10 +6325,10 @@
         <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6354,10 +6354,10 @@
         <v>75</v>
       </c>
       <c r="H172" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6383,10 +6383,10 @@
         <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,10 +6412,10 @@
         <v>75</v>
       </c>
       <c r="H174" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -6441,10 +6441,10 @@
         <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -6470,10 +6470,10 @@
         <v>75</v>
       </c>
       <c r="H176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6499,10 +6499,10 @@
         <v>75</v>
       </c>
       <c r="H177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I177" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6528,10 +6528,10 @@
         <v>75</v>
       </c>
       <c r="H178" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I178" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6557,10 +6557,10 @@
         <v>75</v>
       </c>
       <c r="H179" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I179" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6586,10 +6586,10 @@
         <v>75</v>
       </c>
       <c r="H180" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6615,10 +6615,10 @@
         <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6644,10 +6644,10 @@
         <v>75</v>
       </c>
       <c r="H182" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I182" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6673,10 +6673,10 @@
         <v>75</v>
       </c>
       <c r="H183" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6702,10 +6702,10 @@
         <v>76</v>
       </c>
       <c r="H184" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6731,10 +6731,10 @@
         <v>76</v>
       </c>
       <c r="H185" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6760,10 +6760,10 @@
         <v>76</v>
       </c>
       <c r="H186" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I186" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6789,10 +6789,10 @@
         <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6818,10 +6818,10 @@
         <v>76</v>
       </c>
       <c r="H188" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6847,10 +6847,10 @@
         <v>76</v>
       </c>
       <c r="H189" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I189" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6876,10 +6876,10 @@
         <v>76</v>
       </c>
       <c r="H190" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6905,10 +6905,10 @@
         <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6934,10 +6934,10 @@
         <v>76</v>
       </c>
       <c r="H192" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I192" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6963,10 +6963,10 @@
         <v>76</v>
       </c>
       <c r="H193" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I193" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6992,10 +6992,10 @@
         <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -7021,10 +7021,10 @@
         <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7050,10 +7050,10 @@
         <v>76</v>
       </c>
       <c r="H196" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -7079,10 +7079,10 @@
         <v>76</v>
       </c>
       <c r="H197" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -7108,10 +7108,10 @@
         <v>76</v>
       </c>
       <c r="H198" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -7137,10 +7137,10 @@
         <v>76</v>
       </c>
       <c r="H199" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -7166,10 +7166,10 @@
         <v>76</v>
       </c>
       <c r="H200" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I200" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -7195,10 +7195,10 @@
         <v>76</v>
       </c>
       <c r="H201" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7224,10 +7224,10 @@
         <v>76</v>
       </c>
       <c r="H202" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -7253,10 +7253,10 @@
         <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -7282,10 +7282,10 @@
         <v>76</v>
       </c>
       <c r="H204" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7311,10 +7311,10 @@
         <v>76</v>
       </c>
       <c r="H205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I205" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7340,10 +7340,10 @@
         <v>76</v>
       </c>
       <c r="H206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I206" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -7369,10 +7369,10 @@
         <v>76</v>
       </c>
       <c r="H207" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I207" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7398,10 +7398,10 @@
         <v>76</v>
       </c>
       <c r="H208" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I208" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7427,10 +7427,10 @@
         <v>76</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7456,10 +7456,10 @@
         <v>76</v>
       </c>
       <c r="H210" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7485,10 +7485,10 @@
         <v>76</v>
       </c>
       <c r="H211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7514,10 +7514,10 @@
         <v>76</v>
       </c>
       <c r="H212" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I212" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7543,10 +7543,10 @@
         <v>76</v>
       </c>
       <c r="H213" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I213" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -7572,10 +7572,10 @@
         <v>76</v>
       </c>
       <c r="H214" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -7601,10 +7601,10 @@
         <v>76</v>
       </c>
       <c r="H215" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -7630,10 +7630,10 @@
         <v>76</v>
       </c>
       <c r="H216" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -7659,10 +7659,10 @@
         <v>76</v>
       </c>
       <c r="H217" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7688,10 +7688,10 @@
         <v>77</v>
       </c>
       <c r="H218" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7717,10 +7717,10 @@
         <v>77</v>
       </c>
       <c r="H219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -7746,10 +7746,10 @@
         <v>77</v>
       </c>
       <c r="H220" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -7775,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="H221" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I221" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7804,10 +7804,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
         <v>77</v>
       </c>
       <c r="H223" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I223" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -7862,10 +7862,10 @@
         <v>77</v>
       </c>
       <c r="H224" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -7891,10 +7891,10 @@
         <v>77</v>
       </c>
       <c r="H225" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I225" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>77</v>
       </c>
       <c r="H226" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I226" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -7949,10 +7949,10 @@
         <v>77</v>
       </c>
       <c r="H227" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I227" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -7978,10 +7978,10 @@
         <v>77</v>
       </c>
       <c r="H228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I228" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -8007,10 +8007,10 @@
         <v>77</v>
       </c>
       <c r="H229" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I229" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -8036,10 +8036,10 @@
         <v>77</v>
       </c>
       <c r="H230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I230" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -8065,10 +8065,10 @@
         <v>77</v>
       </c>
       <c r="H231" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I231" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -8094,10 +8094,10 @@
         <v>77</v>
       </c>
       <c r="H232" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I232" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -8123,10 +8123,10 @@
         <v>77</v>
       </c>
       <c r="H233" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I233" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -8152,10 +8152,10 @@
         <v>77</v>
       </c>
       <c r="H234" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I234" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -8181,10 +8181,10 @@
         <v>77</v>
       </c>
       <c r="H235" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I235" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -8210,10 +8210,10 @@
         <v>77</v>
       </c>
       <c r="H236" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I236" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -8239,10 +8239,10 @@
         <v>77</v>
       </c>
       <c r="H237" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I237" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -8268,10 +8268,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I238" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -8297,10 +8297,10 @@
         <v>77</v>
       </c>
       <c r="H239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I239" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -8326,10 +8326,10 @@
         <v>77</v>
       </c>
       <c r="H240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I240" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -8355,10 +8355,10 @@
         <v>77</v>
       </c>
       <c r="H241" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I241" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -8384,10 +8384,10 @@
         <v>77</v>
       </c>
       <c r="H242" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I242" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -8413,10 +8413,10 @@
         <v>77</v>
       </c>
       <c r="H243" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I243" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -8442,10 +8442,10 @@
         <v>77</v>
       </c>
       <c r="H244" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I244" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -8471,10 +8471,10 @@
         <v>77</v>
       </c>
       <c r="H245" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I245" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -8500,10 +8500,10 @@
         <v>78</v>
       </c>
       <c r="H246" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I246" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8529,10 +8529,10 @@
         <v>78</v>
       </c>
       <c r="H247" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I247" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8558,10 +8558,10 @@
         <v>78</v>
       </c>
       <c r="H248" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I248" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8587,10 +8587,10 @@
         <v>78</v>
       </c>
       <c r="H249" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I249" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8616,10 +8616,10 @@
         <v>78</v>
       </c>
       <c r="H250" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I250" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8645,10 +8645,10 @@
         <v>78</v>
       </c>
       <c r="H251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I251" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8674,10 +8674,10 @@
         <v>78</v>
       </c>
       <c r="H252" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I252" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -8703,10 +8703,10 @@
         <v>78</v>
       </c>
       <c r="H253" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I253" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8732,10 +8732,10 @@
         <v>78</v>
       </c>
       <c r="H254" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I254" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -8761,10 +8761,10 @@
         <v>78</v>
       </c>
       <c r="H255" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I255" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8790,10 +8790,10 @@
         <v>78</v>
       </c>
       <c r="H256" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I256" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -8819,10 +8819,10 @@
         <v>78</v>
       </c>
       <c r="H257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I257" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -8848,10 +8848,10 @@
         <v>78</v>
       </c>
       <c r="H258" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I258" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -8877,10 +8877,10 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I259" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -8906,10 +8906,10 @@
         <v>78</v>
       </c>
       <c r="H260" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I260" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -8935,10 +8935,10 @@
         <v>78</v>
       </c>
       <c r="H261" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I261" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -8964,10 +8964,10 @@
         <v>78</v>
       </c>
       <c r="H262" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I262" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -8993,10 +8993,10 @@
         <v>78</v>
       </c>
       <c r="H263" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I263" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -9022,10 +9022,10 @@
         <v>78</v>
       </c>
       <c r="H264" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I264" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -9051,10 +9051,10 @@
         <v>78</v>
       </c>
       <c r="H265" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -9080,10 +9080,10 @@
         <v>78</v>
       </c>
       <c r="H266" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I266" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -9109,10 +9109,10 @@
         <v>78</v>
       </c>
       <c r="H267" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I267" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -9138,10 +9138,10 @@
         <v>78</v>
       </c>
       <c r="H268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I268" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -9167,10 +9167,10 @@
         <v>78</v>
       </c>
       <c r="H269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -9196,10 +9196,10 @@
         <v>78</v>
       </c>
       <c r="H270" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I270" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -9225,10 +9225,10 @@
         <v>78</v>
       </c>
       <c r="H271" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I271" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -9254,10 +9254,10 @@
         <v>78</v>
       </c>
       <c r="H272" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I272" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -9283,10 +9283,10 @@
         <v>78</v>
       </c>
       <c r="H273" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I273" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -9312,10 +9312,10 @@
         <v>78</v>
       </c>
       <c r="H274" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -9341,10 +9341,10 @@
         <v>78</v>
       </c>
       <c r="H275" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I275" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -9370,10 +9370,10 @@
         <v>78</v>
       </c>
       <c r="H276" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I276" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -9399,10 +9399,10 @@
         <v>78</v>
       </c>
       <c r="H277" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I277" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -9428,10 +9428,10 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I278" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -9457,10 +9457,10 @@
         <v>78</v>
       </c>
       <c r="H279" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I279" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -9486,10 +9486,10 @@
         <v>78</v>
       </c>
       <c r="H280" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I280" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -9515,10 +9515,10 @@
         <v>78</v>
       </c>
       <c r="H281" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I281" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -9544,10 +9544,10 @@
         <v>79</v>
       </c>
       <c r="H282" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I282" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -9573,10 +9573,10 @@
         <v>79</v>
       </c>
       <c r="H283" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I283" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -9602,10 +9602,10 @@
         <v>79</v>
       </c>
       <c r="H284" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I284" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -9631,10 +9631,10 @@
         <v>79</v>
       </c>
       <c r="H285" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I285" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -9660,10 +9660,10 @@
         <v>79</v>
       </c>
       <c r="H286" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I286" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -9689,10 +9689,10 @@
         <v>79</v>
       </c>
       <c r="H287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I287" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -9718,10 +9718,10 @@
         <v>79</v>
       </c>
       <c r="H288" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I288" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -9747,10 +9747,10 @@
         <v>79</v>
       </c>
       <c r="H289" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I289" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
@@ -9776,10 +9776,10 @@
         <v>79</v>
       </c>
       <c r="H290" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I290" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
@@ -9805,10 +9805,10 @@
         <v>79</v>
       </c>
       <c r="H291" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I291" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -9834,10 +9834,10 @@
         <v>79</v>
       </c>
       <c r="H292" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I292" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -9863,10 +9863,10 @@
         <v>79</v>
       </c>
       <c r="H293" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I293" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -9892,10 +9892,10 @@
         <v>79</v>
       </c>
       <c r="H294" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I294" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
@@ -9921,10 +9921,10 @@
         <v>79</v>
       </c>
       <c r="H295" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I295" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -9950,10 +9950,10 @@
         <v>79</v>
       </c>
       <c r="H296" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I296" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
@@ -9979,10 +9979,10 @@
         <v>79</v>
       </c>
       <c r="H297" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I297" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -10008,10 +10008,10 @@
         <v>79</v>
       </c>
       <c r="H298" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I298" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -10037,10 +10037,10 @@
         <v>79</v>
       </c>
       <c r="H299" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I299" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -10066,10 +10066,10 @@
         <v>79</v>
       </c>
       <c r="H300" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I300" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
@@ -10095,10 +10095,10 @@
         <v>79</v>
       </c>
       <c r="H301" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -10124,10 +10124,10 @@
         <v>79</v>
       </c>
       <c r="H302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I302" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -10153,10 +10153,10 @@
         <v>79</v>
       </c>
       <c r="H303" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I303" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -10182,10 +10182,10 @@
         <v>79</v>
       </c>
       <c r="H304" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I304" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -10211,10 +10211,10 @@
         <v>79</v>
       </c>
       <c r="H305" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I305" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -10240,10 +10240,10 @@
         <v>79</v>
       </c>
       <c r="H306" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -10269,10 +10269,10 @@
         <v>79</v>
       </c>
       <c r="H307" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I307" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -10298,10 +10298,10 @@
         <v>79</v>
       </c>
       <c r="H308" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I308" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -10327,10 +10327,10 @@
         <v>79</v>
       </c>
       <c r="H309" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I309" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -10356,10 +10356,10 @@
         <v>79</v>
       </c>
       <c r="H310" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I310" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -10385,10 +10385,10 @@
         <v>80</v>
       </c>
       <c r="H311" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I311" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -10414,10 +10414,10 @@
         <v>80</v>
       </c>
       <c r="H312" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I312" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -10443,10 +10443,10 @@
         <v>80</v>
       </c>
       <c r="H313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I313" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -10472,10 +10472,10 @@
         <v>80</v>
       </c>
       <c r="H314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I314" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -10501,10 +10501,10 @@
         <v>80</v>
       </c>
       <c r="H315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I315" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -10530,10 +10530,10 @@
         <v>80</v>
       </c>
       <c r="H316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I316" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -10559,10 +10559,10 @@
         <v>80</v>
       </c>
       <c r="H317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I317" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -10588,10 +10588,10 @@
         <v>80</v>
       </c>
       <c r="H318" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I318" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -10617,10 +10617,10 @@
         <v>80</v>
       </c>
       <c r="H319" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I319" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -10646,10 +10646,10 @@
         <v>80</v>
       </c>
       <c r="H320" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I320" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
@@ -10675,10 +10675,10 @@
         <v>80</v>
       </c>
       <c r="H321" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I321" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
@@ -10704,10 +10704,10 @@
         <v>80</v>
       </c>
       <c r="H322" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I322" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -10733,10 +10733,10 @@
         <v>80</v>
       </c>
       <c r="H323" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I323" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
@@ -10762,10 +10762,10 @@
         <v>80</v>
       </c>
       <c r="H324" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I324" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
@@ -10791,10 +10791,10 @@
         <v>80</v>
       </c>
       <c r="H325" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I325" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
@@ -10820,10 +10820,10 @@
         <v>80</v>
       </c>
       <c r="H326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
@@ -10849,10 +10849,10 @@
         <v>80</v>
       </c>
       <c r="H327" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I327" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
@@ -10878,10 +10878,10 @@
         <v>80</v>
       </c>
       <c r="H328" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I328" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
@@ -10907,10 +10907,10 @@
         <v>80</v>
       </c>
       <c r="H329" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I329" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
@@ -10936,10 +10936,10 @@
         <v>80</v>
       </c>
       <c r="H330" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I330" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
@@ -10965,10 +10965,10 @@
         <v>80</v>
       </c>
       <c r="H331" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I331" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
@@ -10982,7 +10982,7 @@
         <v>85</v>
       </c>
       <c r="D332" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E332">
         <v>1835</v>
@@ -10994,10 +10994,10 @@
         <v>80</v>
       </c>
       <c r="H332" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I332" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
@@ -11023,10 +11023,10 @@
         <v>80</v>
       </c>
       <c r="H333" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I333" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
@@ -11052,10 +11052,10 @@
         <v>80</v>
       </c>
       <c r="H334" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I334" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
@@ -11081,10 +11081,10 @@
         <v>80</v>
       </c>
       <c r="H335" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I335" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
@@ -11110,10 +11110,10 @@
         <v>80</v>
       </c>
       <c r="H336" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I336" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
@@ -11139,10 +11139,10 @@
         <v>80</v>
       </c>
       <c r="H337" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I337" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
@@ -11156,7 +11156,7 @@
         <v>140</v>
       </c>
       <c r="D338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E338">
         <v>2905</v>
@@ -11168,10 +11168,10 @@
         <v>80</v>
       </c>
       <c r="H338" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I338" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
@@ -11197,10 +11197,10 @@
         <v>80</v>
       </c>
       <c r="H339" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I339" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
@@ -11226,10 +11226,10 @@
         <v>81</v>
       </c>
       <c r="H340" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I340" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
@@ -11255,10 +11255,10 @@
         <v>81</v>
       </c>
       <c r="H341" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I341" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
@@ -11284,10 +11284,10 @@
         <v>81</v>
       </c>
       <c r="H342" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I342" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
@@ -11313,10 +11313,10 @@
         <v>81</v>
       </c>
       <c r="H343" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I343" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
@@ -11342,10 +11342,10 @@
         <v>81</v>
       </c>
       <c r="H344" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I344" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
@@ -11371,10 +11371,10 @@
         <v>81</v>
       </c>
       <c r="H345" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I345" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
@@ -11400,10 +11400,10 @@
         <v>81</v>
       </c>
       <c r="H346" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I346" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
@@ -11429,10 +11429,10 @@
         <v>81</v>
       </c>
       <c r="H347" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I347" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
@@ -11458,10 +11458,10 @@
         <v>81</v>
       </c>
       <c r="H348" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I348" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
@@ -11487,10 +11487,10 @@
         <v>81</v>
       </c>
       <c r="H349" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I349" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
@@ -11516,10 +11516,10 @@
         <v>81</v>
       </c>
       <c r="H350" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I350" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
@@ -11545,10 +11545,10 @@
         <v>81</v>
       </c>
       <c r="H351" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I351" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
@@ -11574,10 +11574,10 @@
         <v>81</v>
       </c>
       <c r="H352" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I352" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
@@ -11603,10 +11603,10 @@
         <v>81</v>
       </c>
       <c r="H353" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I353" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
@@ -11632,10 +11632,10 @@
         <v>81</v>
       </c>
       <c r="H354" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I354" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
@@ -11661,10 +11661,10 @@
         <v>81</v>
       </c>
       <c r="H355" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I355" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
@@ -11678,7 +11678,7 @@
         <v>100</v>
       </c>
       <c r="D356" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E356">
         <v>2320</v>
@@ -11690,10 +11690,10 @@
         <v>81</v>
       </c>
       <c r="H356" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I356" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
@@ -11719,10 +11719,10 @@
         <v>81</v>
       </c>
       <c r="H357" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I357" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
@@ -11748,10 +11748,10 @@
         <v>81</v>
       </c>
       <c r="H358" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I358" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
@@ -11777,10 +11777,10 @@
         <v>81</v>
       </c>
       <c r="H359" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I359" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
@@ -11806,10 +11806,10 @@
         <v>81</v>
       </c>
       <c r="H360" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I360" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
@@ -11835,10 +11835,10 @@
         <v>81</v>
       </c>
       <c r="H361" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I361" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
@@ -11864,10 +11864,10 @@
         <v>81</v>
       </c>
       <c r="H362" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I362" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
@@ -11893,10 +11893,10 @@
         <v>81</v>
       </c>
       <c r="H363" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I363" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -11922,10 +11922,10 @@
         <v>81</v>
       </c>
       <c r="H364" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I364" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
@@ -11951,10 +11951,10 @@
         <v>81</v>
       </c>
       <c r="H365" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I365" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
@@ -11980,10 +11980,10 @@
         <v>81</v>
       </c>
       <c r="H366" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I366" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
@@ -12009,10 +12009,10 @@
         <v>81</v>
       </c>
       <c r="H367" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I367" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
@@ -12038,10 +12038,10 @@
         <v>81</v>
       </c>
       <c r="H368" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I368" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.2">
@@ -12067,10 +12067,10 @@
         <v>82</v>
       </c>
       <c r="H369" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I369" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
@@ -12096,10 +12096,10 @@
         <v>82</v>
       </c>
       <c r="H370" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I370" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.2">
@@ -12125,10 +12125,10 @@
         <v>82</v>
       </c>
       <c r="H371" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I371" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
@@ -12154,10 +12154,10 @@
         <v>82</v>
       </c>
       <c r="H372" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I372" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.2">
@@ -12183,10 +12183,10 @@
         <v>82</v>
       </c>
       <c r="H373" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I373" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
@@ -12212,10 +12212,10 @@
         <v>82</v>
       </c>
       <c r="H374" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I374" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.2">
@@ -12241,10 +12241,10 @@
         <v>82</v>
       </c>
       <c r="H375" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I375" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
@@ -12258,7 +12258,7 @@
         <v>151</v>
       </c>
       <c r="D376" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E376">
         <v>3035</v>
@@ -12270,10 +12270,10 @@
         <v>82</v>
       </c>
       <c r="H376" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I376" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.2">
@@ -12299,10 +12299,10 @@
         <v>82</v>
       </c>
       <c r="H377" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I377" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
@@ -12328,10 +12328,10 @@
         <v>82</v>
       </c>
       <c r="H378" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I378" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.2">
@@ -12357,10 +12357,10 @@
         <v>82</v>
       </c>
       <c r="H379" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I379" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
@@ -12386,10 +12386,10 @@
         <v>82</v>
       </c>
       <c r="H380" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I380" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.2">
@@ -12415,10 +12415,10 @@
         <v>82</v>
       </c>
       <c r="H381" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I381" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.2">
@@ -12444,10 +12444,10 @@
         <v>82</v>
       </c>
       <c r="H382" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I382" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.2">
@@ -12473,10 +12473,10 @@
         <v>82</v>
       </c>
       <c r="H383" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I383" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.2">
@@ -12502,10 +12502,10 @@
         <v>82</v>
       </c>
       <c r="H384" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I384" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
@@ -12531,10 +12531,10 @@
         <v>82</v>
       </c>
       <c r="H385" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I385" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -12560,10 +12560,10 @@
         <v>82</v>
       </c>
       <c r="H386" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I386" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
@@ -12589,10 +12589,10 @@
         <v>82</v>
       </c>
       <c r="H387" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I387" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -12618,10 +12618,10 @@
         <v>82</v>
       </c>
       <c r="H388" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I388" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
@@ -12647,10 +12647,10 @@
         <v>82</v>
       </c>
       <c r="H389" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I389" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
@@ -12676,10 +12676,10 @@
         <v>82</v>
       </c>
       <c r="H390" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I390" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
@@ -12705,10 +12705,10 @@
         <v>82</v>
       </c>
       <c r="H391" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I391" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
@@ -12734,10 +12734,10 @@
         <v>82</v>
       </c>
       <c r="H392" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I392" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
@@ -12763,10 +12763,10 @@
         <v>82</v>
       </c>
       <c r="H393" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I393" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
@@ -12792,10 +12792,10 @@
         <v>82</v>
       </c>
       <c r="H394" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I394" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
@@ -12821,10 +12821,10 @@
         <v>82</v>
       </c>
       <c r="H395" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I395" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
@@ -12850,10 +12850,10 @@
         <v>82</v>
       </c>
       <c r="H396" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I396" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
@@ -12879,10 +12879,10 @@
         <v>82</v>
       </c>
       <c r="H397" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I397" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
@@ -12908,10 +12908,10 @@
         <v>82</v>
       </c>
       <c r="H398" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I398" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
@@ -12937,10 +12937,10 @@
         <v>82</v>
       </c>
       <c r="H399" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I399" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
